--- a/relatorios/repasses_liberados/dentistas/68831358472/2023-08-25_relatorio_repasses_68831358472.xlsx
+++ b/relatorios/repasses_liberados/dentistas/68831358472/2023-08-25_relatorio_repasses_68831358472.xlsx
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N322">
         <v>0</v>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -18156,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18376,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -18772,7 +18772,7 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N398">
         <v>0</v>
@@ -19784,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20004,7 +20004,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N426">
         <v>0</v>
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N433">
         <v>0</v>
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N436">
         <v>0</v>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N437">
         <v>0</v>
@@ -21940,7 +21940,7 @@
         <v>0</v>
       </c>
       <c r="M470">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N470">
         <v>0</v>
@@ -22248,7 +22248,7 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N477">
         <v>0</v>
@@ -22292,7 +22292,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N508">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N511">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N521">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N523">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -26692,7 +26692,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N578">
         <v>0</v>
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N584">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N594">
         <v>0</v>
@@ -27440,7 +27440,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N595">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N605">
         <v>0</v>
@@ -28672,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N623">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N625">
         <v>0</v>
@@ -29728,7 +29728,7 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N647">
         <v>0</v>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N649">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -30388,7 +30388,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="M665">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N665">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/68831358472/2023-08-25_relatorio_repasses_68831358472.xlsx
+++ b/relatorios/repasses_liberados/dentistas/68831358472/2023-08-25_relatorio_repasses_68831358472.xlsx
@@ -5836,10 +5836,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N104">
-        <v>6.846</v>
+        <v>9.128</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5880,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N105">
-        <v>1.956</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6012,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N108">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6848,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N127">
-        <v>5.856</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7288,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N137">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7552,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N143">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7640,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N145">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7904,10 +7904,10 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7992,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N160">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8476,10 +8476,10 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8520,10 +8520,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N165">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N171">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8828,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N172">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -9048,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N177">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9136,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N179">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N185">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9444,10 +9444,10 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N186">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N188">
-        <v>0.051</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -9664,10 +9664,10 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>17.697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9708,10 +9708,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>6.573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9840,10 +9840,10 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N195">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N198">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -10412,10 +10412,10 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N208">
-        <v>6.456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10456,10 +10456,10 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N209">
-        <v>3.453</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11336,10 +11336,10 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N229">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11996,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N244">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12040,10 +12040,10 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N245">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -12524,10 +12524,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12568,10 +12568,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N257">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12700,10 +12700,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N260">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12964,10 +12964,10 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N266">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N285">
         <v>0</v>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -14724,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -15120,7 +15120,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -15956,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -16000,7 +16000,7 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N335">
         <v>0</v>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -16396,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -16440,7 +16440,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17408,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -18112,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18200,7 +18200,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -18904,7 +18904,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N416">
         <v>0</v>
@@ -19784,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -19872,7 +19872,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
         <v>0</v>
@@ -19916,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N424">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N433">
         <v>0</v>
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N436">
         <v>0</v>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N437">
         <v>0</v>
@@ -20532,7 +20532,7 @@
         <v>0</v>
       </c>
       <c r="M438">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N438">
         <v>0</v>
@@ -20576,7 +20576,7 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N439">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N440">
         <v>0</v>
@@ -20796,10 +20796,10 @@
         <v>1</v>
       </c>
       <c r="M444">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N444">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -20928,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -21192,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N456">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N457">
         <v>0</v>
@@ -21588,7 +21588,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N462">
         <v>0</v>
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N468">
         <v>0</v>
@@ -21896,7 +21896,7 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N469">
         <v>0</v>
@@ -22248,7 +22248,7 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N477">
         <v>0</v>
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N483">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N485">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N486">
         <v>0</v>
@@ -22776,7 +22776,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -22820,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -22864,7 +22864,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N492">
         <v>0</v>
@@ -23084,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N502">
         <v>0</v>
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N505">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N511">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -23920,7 +23920,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N516">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N517">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N519">
         <v>0</v>
@@ -24140,7 +24140,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N521">
         <v>0</v>
@@ -24228,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N522">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N523">
         <v>0</v>
@@ -24316,7 +24316,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N524">
         <v>0</v>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N525">
         <v>0</v>
@@ -24404,7 +24404,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N527">
         <v>0</v>
@@ -24756,7 +24756,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N534">
         <v>0</v>
@@ -24800,7 +24800,7 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N535">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="M536">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N536">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -25152,7 +25152,7 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N543">
         <v>0</v>
@@ -25416,7 +25416,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -25460,7 +25460,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N556">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N563">
         <v>0</v>
@@ -26120,7 +26120,7 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N565">
         <v>0</v>
@@ -26164,7 +26164,7 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N566">
         <v>0</v>
@@ -26208,7 +26208,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N567">
         <v>0</v>
@@ -26252,7 +26252,7 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N568">
         <v>0</v>
@@ -26296,7 +26296,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N569">
         <v>0</v>
@@ -26340,7 +26340,7 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N570">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N571">
         <v>0</v>
@@ -26736,7 +26736,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N593">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N594">
         <v>0</v>
@@ -27484,7 +27484,7 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N596">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N603">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N605">
         <v>0</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N615">
         <v>0</v>
@@ -28496,7 +28496,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N619">
         <v>0</v>
@@ -28672,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N623">
         <v>0</v>
@@ -28716,7 +28716,7 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N624">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N625">
         <v>0</v>
@@ -28936,7 +28936,7 @@
         <v>0</v>
       </c>
       <c r="M629">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N629">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N636">
         <v>0</v>
@@ -29728,7 +29728,7 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N647">
         <v>0</v>
@@ -29772,7 +29772,7 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N648">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30300,7 +30300,7 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N660">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -30476,7 +30476,7 @@
         <v>0</v>
       </c>
       <c r="M664">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N664">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="M665">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N665">
         <v>0</v>
@@ -30564,7 +30564,7 @@
         <v>0</v>
       </c>
       <c r="M666">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N666">
         <v>0</v>
@@ -30608,7 +30608,7 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N667">
         <v>0</v>
@@ -30652,7 +30652,7 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N668">
         <v>0</v>
@@ -30784,7 +30784,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -30828,7 +30828,7 @@
         <v>0</v>
       </c>
       <c r="M672">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N672">
         <v>0</v>
@@ -30872,7 +30872,7 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N673">
         <v>0</v>
@@ -30916,7 +30916,7 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N674">
         <v>0</v>
@@ -31048,7 +31048,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -31224,7 +31224,7 @@
         <v>0</v>
       </c>
       <c r="M681">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N681">
         <v>0</v>
@@ -31268,7 +31268,7 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N682">
         <v>0</v>
@@ -31312,7 +31312,7 @@
         <v>0</v>
       </c>
       <c r="M683">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N683">
         <v>0</v>
@@ -31576,7 +31576,7 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N689">
         <v>0</v>
@@ -31664,7 +31664,7 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N691">
         <v>0</v>
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N692">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="M693">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N693">
         <v>0</v>
